--- a/tables/sample.xlsx
+++ b/tables/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59585E37-A301-448D-8A63-11FA0C44116C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79C3901-843C-4F16-8D66-7F6A4ECA121D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="3660" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4620" yWindow="4260" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>Twitter</t>
   </si>
@@ -131,7 +131,7 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -139,7 +139,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -484,7 +484,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -658,12 +658,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2">
-        <v>44296</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A9" s="2"/>
     </row>
     <row r="11" spans="1:6">
       <c r="F11" s="1" t="s">
